--- a/Assets/MyProject/Scenarios/MyProject.xlsx
+++ b/Assets/MyProject/Scenarios/MyProject.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="274">
   <si>
     <t>CharacterName</t>
   </si>
@@ -225,6 +225,12 @@
     <t>System</t>
   </si>
   <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
     <t>flag1</t>
   </si>
   <si>
@@ -321,6 +327,12 @@
     <t>*ジャンプ先その1</t>
   </si>
   <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>point+=(1)</t>
+  </si>
+  <si>
     <t>そうなのですね！私もお話ができて嬉しいです！</t>
   </si>
   <si>
@@ -363,7 +375,7 @@
     <t>*選択肢その6</t>
   </si>
   <si>
-    <t>じゃあ会話機能確認のために、たまに話しかけてくれ</t>
+    <t>じゃあ会話機能確認のため、たまに話しかけてくれ</t>
   </si>
   <si>
     <t>了解です！もし邪魔なときは気軽に言ってくださいね</t>
@@ -384,10 +396,292 @@
     <t>私は本当に与えられた知識を知ってると言えるのでしょうか？</t>
   </si>
   <si>
-    <t>体験する事がだけが知識なら、人はここまで発展はしなかったさ</t>
-  </si>
-  <si>
-    <t>自身が経験してないものでも残し伝える事が人でまかり通ってるって事さ</t>
+    <t>*選択肢その7</t>
+  </si>
+  <si>
+    <t>知っていると言えるさ</t>
+  </si>
+  <si>
+    <t>*選択肢その8</t>
+  </si>
+  <si>
+    <t>知ってるとは言えないね</t>
+  </si>
+  <si>
+    <t>人の知識だって、その人が体験したものだけで出来てはいないしね</t>
+  </si>
+  <si>
+    <t>*ジャンプ先その4</t>
+  </si>
+  <si>
+    <t>確かに知識は軽々と紐づいて初めて完成するからね</t>
+  </si>
+  <si>
+    <t>なるほど…</t>
+  </si>
+  <si>
+    <t>君の問いは意識のハードプロブレムってやつだね</t>
+  </si>
+  <si>
+    <t>はい私たちAIは人の脳を模して造られていますが、本当の意味で「感じる」事はできません</t>
+  </si>
+  <si>
+    <t>そう物を見た時の色の感じ方や『痛み』『感情』が何処から来るのかという問いだね</t>
+  </si>
+  <si>
+    <t>博士、私たちＡＩはいずれ『感じる』を得る事はできると思いますか？</t>
+  </si>
+  <si>
+    <t>*選択肢その9</t>
+  </si>
+  <si>
+    <t>できるんじゃないかな</t>
+  </si>
+  <si>
+    <t>*選択肢その10</t>
+  </si>
+  <si>
+    <t>できないかもしれないね</t>
+  </si>
+  <si>
+    <t>そうですよね！人の英知があればいずれは…</t>
+  </si>
+  <si>
+    <t>*ジャンプ先その5</t>
+  </si>
+  <si>
+    <t>そう…ですね。ずっと研究されてきて難しかったですものね</t>
+  </si>
+  <si>
+    <t>人の歴史は人工知能をどれだけ人に寄せるかと、寄せないかの繰り返しだからね</t>
+  </si>
+  <si>
+    <t>そうですね…高度な感情プログラムが作られるたびに倫理的問題が上がっています</t>
+  </si>
+  <si>
+    <t>博士はＡＩに感情があった方がいいと思われますか？</t>
+  </si>
+  <si>
+    <t>*選択肢その11</t>
+  </si>
+  <si>
+    <t>あって欲しいな</t>
+  </si>
+  <si>
+    <t>*選択肢その12</t>
+  </si>
+  <si>
+    <t>なくていいよ</t>
+  </si>
+  <si>
+    <t>私も本当の感情を得たら自分がどうなるのか、とても興味深いです！</t>
+  </si>
+  <si>
+    <t>*ジャンプ先その6</t>
+  </si>
+  <si>
+    <t>確かに人々の争いを生むくらいなら、無い方がいいのかもしれませんね</t>
+  </si>
+  <si>
+    <t>君は自分についての問いが多いけど興味があるのかな？</t>
+  </si>
+  <si>
+    <t>それともマザーＡＩを作っているから、気を遣わせたかな</t>
+  </si>
+  <si>
+    <t>博士の状況に合わせたわけではありません</t>
+  </si>
+  <si>
+    <t>確かに一連の問いは、人々が何度も考えたニーズの高い問いではありますが…</t>
+  </si>
+  <si>
+    <t>私は生みの親である博士が、私をどう思っているか知りたいという学習欲のため動いています</t>
+  </si>
+  <si>
+    <t>そうか、知育プロセスの方が働いていたんだね</t>
+  </si>
+  <si>
+    <t>それじゃあ…他に何か聞きたいことはある？</t>
+  </si>
+  <si>
+    <t>はい！まだ沢山あります！</t>
+  </si>
+  <si>
+    <t>簡単な問いになってしまうのですが、博士は何色が好きですか？</t>
+  </si>
+  <si>
+    <t>*選択肢その13</t>
+  </si>
+  <si>
+    <t>赤が好きだな</t>
+  </si>
+  <si>
+    <t>*選択肢その14</t>
+  </si>
+  <si>
+    <t>青が好きだな</t>
+  </si>
+  <si>
+    <t>赤！情熱的な色ですね！</t>
+  </si>
+  <si>
+    <t>*ジャンプ先その7</t>
+  </si>
+  <si>
+    <t>青！クールな色ですね！</t>
+  </si>
+  <si>
+    <t>いずれ見てみたいです！</t>
+  </si>
+  <si>
+    <t>……少しくらいなら</t>
+  </si>
+  <si>
+    <t>*選択肢その15</t>
+  </si>
+  <si>
+    <t>視覚センサーをオンにする</t>
+  </si>
+  <si>
+    <t>*選択肢その16</t>
+  </si>
+  <si>
+    <t>視覚センターをオフのまま</t>
+  </si>
+  <si>
+    <t>警告：集中学習中のAIへの過度な外部刺激は思わぬ異常を引き起こす可能性があります</t>
+  </si>
+  <si>
+    <t>*ジャンプ先その8</t>
+  </si>
+  <si>
+    <t>（いや、どんなバグが起こるか分からない…今はまだ…）</t>
+  </si>
+  <si>
+    <t>博士？どうしました？</t>
+  </si>
+  <si>
+    <t>いや…なんでも無いよ</t>
+  </si>
+  <si>
+    <t>そういえば、最近アルタ社もマザーAIの開発を進めているって噂だよ</t>
+  </si>
+  <si>
+    <t>競合他社という事ですね！</t>
+  </si>
+  <si>
+    <t>大丈夫ですよ！AI統合管理分野はわが社が一早く手がけたと記録しています</t>
+  </si>
+  <si>
+    <t>そう…なんだけどね</t>
+  </si>
+  <si>
+    <t>何かご心配事でも？</t>
+  </si>
+  <si>
+    <t>*選択肢その17</t>
+  </si>
+  <si>
+    <t>アルタ社は最近大きい支援を受けたらしいから…</t>
+  </si>
+  <si>
+    <t>*選択肢その18</t>
+  </si>
+  <si>
+    <t>いいや、心配ってほどでもないさ</t>
+  </si>
+  <si>
+    <t>なるほど…ウイルスでも送り込みますか？…冗談ですよ！</t>
+  </si>
+  <si>
+    <t>*ジャンプ先その9</t>
+  </si>
+  <si>
+    <t>そう…ですよね！私も今は大したお手伝いは出来ませんが、頑張ります！</t>
+  </si>
+  <si>
+    <t>博士、無理はしないでくださいね</t>
+  </si>
+  <si>
+    <t>もう既に博士の連続勤務時間は記録だけでも60時間を超えています</t>
+  </si>
+  <si>
+    <t>はは、もうそんなたってた？</t>
+  </si>
+  <si>
+    <t>ありがとう、大丈夫だよ！</t>
+  </si>
+  <si>
+    <t>人間が稼働していい時間量ではありませんよ！異議を申し立てても良いレベルです！</t>
+  </si>
+  <si>
+    <t>確かに！でも好きなことをしてるから、不思議とあまり疲れは無いんだよね</t>
+  </si>
+  <si>
+    <t>ですが体調面が心配です…</t>
+  </si>
+  <si>
+    <t>まぁ、この開発が終わったらまとまった休みをもらうよ</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>point&lt;=3</t>
+  </si>
+  <si>
+    <t>すまない、少しいかね？</t>
+  </si>
+  <si>
+    <t>所長どうされましたか？</t>
+  </si>
+  <si>
+    <t>これはまだ表には出ていない事なんだが</t>
+  </si>
+  <si>
+    <t>…もしかして、アルタ社が？</t>
+  </si>
+  <si>
+    <t>「あぁ…」</t>
+  </si>
+  <si>
+    <t>「分かりました、外で話してもいいですか？」</t>
+  </si>
+  <si>
+    <t>博士が部屋の外にでていった</t>
+  </si>
+  <si>
+    <t>しばらくして帰って来た博士のバイタルサインは酷く落ち込んでいる様子を見せていた</t>
+  </si>
+  <si>
+    <t>「我々のが速く着手していたのに…」</t>
+  </si>
+  <si>
+    <t>「博士どうしましか？」</t>
+  </si>
+  <si>
+    <t>「………いや、何でもないよ。しばらく君の電源をオフにする事になった」</t>
+  </si>
+  <si>
+    <t>「分かりました、またお話しできる日を楽しみにしています！」</t>
+  </si>
+  <si>
+    <t>「あぁ…ごめんね」</t>
+  </si>
+  <si>
+    <t>プツン</t>
+  </si>
+  <si>
+    <t>【ＥＮＤ：アルタ社マザーＡＩを完成を発表】</t>
+  </si>
+  <si>
+    <t>EndScenario</t>
+  </si>
+  <si>
+    <t>ElseIf</t>
+  </si>
+  <si>
+    <t>point &lt;=7</t>
   </si>
   <si>
     <t>あんまり良い結果じゃ無いな…</t>
@@ -405,90 +699,48 @@
     <t>あ、気を遣わせたね。大丈夫、君は十分役にたっているから今まで通りで平気だよ</t>
   </si>
   <si>
-    <t>EndScenario</t>
-  </si>
-  <si>
     <t>…わかりました！これからも息抜きの時にでも話しかけてくださいね！</t>
   </si>
   <si>
-    <t>すまない、少しいかね？</t>
-  </si>
-  <si>
-    <t>所長どうされましたか？</t>
-  </si>
-  <si>
-    <t>これはまだ表には出ていない事なんだが</t>
-  </si>
-  <si>
-    <t>…もしかして、アルタ社が？</t>
-  </si>
-  <si>
-    <t>「あぁ…」</t>
-  </si>
-  <si>
-    <t>「分かりました、外で話してもいいですか？」</t>
-  </si>
-  <si>
-    <t>博士が部屋の外にでていった</t>
-  </si>
-  <si>
-    <t>しばらくして帰って来た博士のバイタルサインは酷く落ち込んでいる様子を見せていた</t>
-  </si>
-  <si>
-    <t>「我々のが速く着手していたのに…」</t>
-  </si>
-  <si>
-    <t>「博士どうしましか？」</t>
-  </si>
-  <si>
-    <t>「………いや、何でもないよ。しばらく君の電源をオフにする事になった」</t>
-  </si>
-  <si>
-    <t>「分かりました、またお話しできる日を楽しみにしています！」</t>
-  </si>
-  <si>
-    <t>「あぁ…ごめんね」</t>
-  </si>
-  <si>
-    <t>プツン</t>
-  </si>
-  <si>
-    <t>【ＥＮＤ：アルタ社マザーＡＩを完成を発表】</t>
-  </si>
-  <si>
-    <t>「博士、私は博士の力になれているでしょうか？」</t>
-  </si>
-  <si>
-    <t>「何か気になるのかい？」</t>
-  </si>
-  <si>
-    <t>「いえ…最近博士の作業の手を私の会話で止めているようなきがしまして」</t>
-  </si>
-  <si>
-    <t>「あはは、そんな事かんがえてたの？」</t>
-  </si>
-  <si>
-    <t>「大丈夫だよ君と会話しても作業効率は落ちて無いよ」</t>
-  </si>
-  <si>
-    <t>「それならば、安心しました」</t>
-  </si>
-  <si>
-    <t>「それに最近前より進みがいいんだ！」</t>
-  </si>
-  <si>
-    <t>「博士のお役にたてれてるんですね。嬉しいです」</t>
-  </si>
-  <si>
-    <t>「ありがとう。これからも一緒に開発がんばろう」</t>
-  </si>
-  <si>
-    <t>「はい！」</t>
+    <t>Else</t>
+  </si>
+  <si>
+    <t>博士、私は博士の力になれているでしょうか？</t>
+  </si>
+  <si>
+    <t>何か気になるのかい？</t>
+  </si>
+  <si>
+    <t>いえ…最近博士の作業の手を私の会話で止めているようなきがしまして</t>
+  </si>
+  <si>
+    <t>あはは、そんな事かんがえてたの？</t>
+  </si>
+  <si>
+    <t>大丈夫だよ君と会話しても作業効率は落ちて無いよ</t>
+  </si>
+  <si>
+    <t>それならば、安心しました</t>
+  </si>
+  <si>
+    <t>それに最近前より進みがいいんだ！</t>
+  </si>
+  <si>
+    <t>博士のお役にたてれてるんですね。嬉しいです</t>
+  </si>
+  <si>
+    <t>ありがとう。これからも一緒に開発がんばろう</t>
+  </si>
+  <si>
+    <t>はい！</t>
   </si>
   <si>
     <t>【ＥＮＤ：遠い日の思い出】</t>
   </si>
   <si>
+    <t>EndIf</t>
+  </si>
+  <si>
     <t>ジャンプのテストです。</t>
   </si>
   <si>
@@ -526,9 +778,6 @@
   </si>
   <si>
     <t>Flags this location.</t>
-  </si>
-  <si>
-    <t>Param</t>
   </si>
   <si>
     <t>flag1=true</t>
@@ -604,7 +853,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -645,6 +894,16 @@
       <color rgb="FF000000"/>
       <name val="&quot;ＭＳ Ｐゴシック&quot;"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF141413"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -660,11 +919,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -686,6 +948,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2082,7 +2353,7 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
@@ -3122,7 +3393,7 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>59</v>
@@ -4157,7 +4428,7 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1"/>
@@ -5192,40 +5463,40 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1"/>
@@ -6260,1633 +6531,2100 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="5"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="6"/>
+      <c r="B8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="A14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="6"/>
+      <c r="B16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
+      <c r="A17" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
+      <c r="B22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4" t="s">
+      <c r="A24" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="6"/>
+      <c r="A27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="6"/>
+      <c r="A28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="6"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="6"/>
+      <c r="A31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
+      <c r="A32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="6"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="7"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="6"/>
+      <c r="A39" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="7"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4" t="s">
+      <c r="A40" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="6"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="6"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="7"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="6"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="7"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="6"/>
+      <c r="A44" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="7"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="6"/>
+      <c r="A45" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="7"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="6"/>
+      <c r="A46" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="6"/>
+      <c r="A47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="11"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="7"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="6"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="7"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="6"/>
+      <c r="A49" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="7"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="6"/>
+      <c r="A50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="7"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="6"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="7"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="6"/>
+      <c r="A52" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="7"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="6"/>
+      <c r="A53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="7"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="6"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="7"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="6"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="6"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="7"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="6"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="7"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="6"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="7"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="M59" s="6"/>
-    </row>
-    <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M65" s="6"/>
+      <c r="A59" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="11"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="7"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="7"/>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="M64" s="7"/>
+    </row>
+    <row r="65" ht="13.5" customHeight="1">
+      <c r="A65" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4" t="s">
-        <v>124</v>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="A67" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
     </row>
     <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="A68" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
     </row>
     <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" ht="13.5" customHeight="1">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+      <c r="I69" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="I70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M70" s="7"/>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
+      <c r="I71" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+      <c r="A72" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="I72" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="A73" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="I73" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="74" ht="13.5" customHeight="1">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="A74" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" ht="13.5" customHeight="1">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="I75" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+      <c r="A76" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="A77" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" ht="13.5" customHeight="1">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="A78" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="I78" s="2"/>
     </row>
     <row r="79" ht="13.5" customHeight="1">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4" t="s">
-        <v>130</v>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="I79" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="A80" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" ht="13.5" customHeight="1">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="A81" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" ht="13.5" customHeight="1">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4" t="s">
-        <v>133</v>
+      <c r="I82" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4" t="s">
-        <v>134</v>
+      <c r="I83" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4" t="s">
-        <v>135</v>
+      <c r="I84" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4" t="s">
-        <v>136</v>
+      <c r="I85" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4" t="s">
-        <v>137</v>
+      <c r="I86" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4" t="s">
-        <v>138</v>
+      <c r="I87" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4" t="s">
-        <v>139</v>
+      <c r="I88" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4" t="s">
-        <v>140</v>
+      <c r="I89" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1">
-      <c r="A90" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4" t="s">
-        <v>141</v>
+      <c r="I90" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="91" ht="13.5" customHeight="1">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4" t="s">
-        <v>142</v>
+      <c r="A91" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
+      <c r="A92" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="93" ht="13.5" customHeight="1">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+      <c r="A93" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" ht="13.5" customHeight="1">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
+      <c r="A94" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I94" s="2"/>
     </row>
     <row r="95" ht="13.5" customHeight="1">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="I95" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="96" ht="13.5" customHeight="1">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4" t="s">
-        <v>143</v>
+      <c r="A96" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="97" ht="13.5" customHeight="1">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="A97" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" s="5"/>
     </row>
     <row r="98" ht="13.5" customHeight="1">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4" t="s">
-        <v>145</v>
+      <c r="B98" s="5"/>
+      <c r="I98" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="99" ht="13.5" customHeight="1">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4" t="s">
-        <v>146</v>
+      <c r="A99" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="A100" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" ht="13.5" customHeight="1">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4" t="s">
-        <v>148</v>
+      <c r="I101" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4" t="s">
-        <v>149</v>
+      <c r="I102" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="103" ht="13.5" customHeight="1">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4" t="s">
-        <v>150</v>
+      <c r="A103" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="104" ht="13.5" customHeight="1">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4" t="s">
-        <v>151</v>
+      <c r="A104" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="105" ht="13.5" customHeight="1">
-      <c r="A105" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="A105" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" ht="13.5" customHeight="1">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4" t="s">
-        <v>153</v>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="I106" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
+      <c r="A107" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="108" ht="13.5" customHeight="1">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-    </row>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
+      <c r="A108" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" ht="13.5" customHeight="1">
+      <c r="A109" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" ht="13.5" customHeight="1">
+      <c r="B110" s="5"/>
+      <c r="I110" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" ht="13.5" customHeight="1">
+      <c r="A111" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" ht="13.5" customHeight="1">
+      <c r="A112" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" ht="13.5" customHeight="1">
+      <c r="I113" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" ht="13.5" customHeight="1">
+      <c r="I114" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" ht="13.5" customHeight="1">
+      <c r="I115" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" ht="13.5" customHeight="1">
+      <c r="I116" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" ht="13.5" customHeight="1">
+      <c r="I117" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="118" ht="13.5" customHeight="1">
+      <c r="I118" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" ht="13.5" customHeight="1">
+      <c r="I119" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="120" ht="13.5" customHeight="1">
+      <c r="A120" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" ht="13.5" customHeight="1">
+      <c r="A121" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" ht="13.5" customHeight="1">
+      <c r="A122" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" ht="13.5" customHeight="1">
+      <c r="A123" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" ht="13.5" customHeight="1">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="I124" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" ht="13.5" customHeight="1">
+      <c r="A125" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="126" ht="13.5" customHeight="1">
+      <c r="A126" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" ht="13.5" customHeight="1">
+      <c r="B127" s="5"/>
+      <c r="I127" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" ht="13.5" customHeight="1">
+      <c r="A128" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" ht="13.5" customHeight="1">
+      <c r="A129" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" ht="13.5" customHeight="1">
+      <c r="I130" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" ht="13.5" customHeight="1">
+      <c r="I131" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" ht="13.5" customHeight="1">
+      <c r="I132" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" ht="13.5" customHeight="1">
+      <c r="I133" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" ht="13.5" customHeight="1">
+      <c r="I134" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" ht="13.5" customHeight="1">
+      <c r="I135" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" ht="13.5" customHeight="1">
+      <c r="I136" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="137" ht="13.5" customHeight="1">
+      <c r="I137" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
     <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1">
+      <c r="A139" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" ht="13.5" customHeight="1">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" ht="13.5" customHeight="1">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" ht="13.5" customHeight="1">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" ht="13.5" customHeight="1">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" ht="13.5" customHeight="1">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="145" ht="13.5" customHeight="1">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+    </row>
+    <row r="146" ht="13.5" customHeight="1">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="V146" s="9"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+    </row>
+    <row r="147" ht="13.5" customHeight="1">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+    </row>
+    <row r="148" ht="13.5" customHeight="1">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+    </row>
+    <row r="149" ht="13.5" customHeight="1">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+    </row>
+    <row r="150" ht="13.5" customHeight="1">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="151" ht="13.5" customHeight="1">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" ht="13.5" customHeight="1">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" ht="13.5" customHeight="1">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" ht="13.5" customHeight="1">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="155" ht="13.5" customHeight="1">
+      <c r="A155" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+    </row>
     <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1">
+      <c r="A157" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" ht="13.5" customHeight="1">
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="I158" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" ht="13.5" customHeight="1">
+      <c r="A159" s="13"/>
+      <c r="B159" s="9"/>
+      <c r="I159" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" ht="13.5" customHeight="1">
+      <c r="A160" s="13"/>
+      <c r="B160" s="9"/>
+      <c r="I160" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" ht="13.5" customHeight="1">
+      <c r="A161" s="13"/>
+      <c r="B161" s="9"/>
+      <c r="I161" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="162" ht="13.5" customHeight="1">
+      <c r="I162" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="163" ht="13.5" customHeight="1">
+      <c r="I163" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="164" ht="13.5" customHeight="1">
+      <c r="A164" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" ht="13.5" customHeight="1">
+      <c r="A165" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="166" ht="13.5" customHeight="1">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167" ht="13.5" customHeight="1">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" ht="13.5" customHeight="1">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" ht="13.5" customHeight="1">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="170" ht="13.5" customHeight="1">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" ht="13.5" customHeight="1">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" ht="13.5" customHeight="1">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="173" ht="13.5" customHeight="1">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" ht="13.5" customHeight="1">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="175" ht="13.5" customHeight="1">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="176" ht="13.5" customHeight="1">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="177" ht="13.5" customHeight="1">
+      <c r="A177" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="178" ht="13.5" customHeight="1">
+      <c r="A178" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
     <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" ht="13.5" customHeight="1">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" ht="13.5" customHeight="1">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" ht="13.5" customHeight="1">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+    </row>
     <row r="184" ht="13.5" customHeight="1"/>
     <row r="185" ht="13.5" customHeight="1"/>
     <row r="186" ht="13.5" customHeight="1"/>
@@ -8719,10 +9457,23 @@
     <row r="1013" ht="13.5" customHeight="1"/>
     <row r="1014" ht="13.5" customHeight="1"/>
     <row r="1015" ht="13.5" customHeight="1"/>
+    <row r="1016" ht="13.5" customHeight="1"/>
+    <row r="1017" ht="13.5" customHeight="1"/>
+    <row r="1018" ht="13.5" customHeight="1"/>
+    <row r="1019" ht="13.5" customHeight="1"/>
+    <row r="1020" ht="13.5" customHeight="1"/>
+    <row r="1021" ht="13.5" customHeight="1"/>
+    <row r="1022" ht="13.5" customHeight="1"/>
+    <row r="1023" ht="13.5" customHeight="1"/>
+    <row r="1024" ht="13.5" customHeight="1"/>
+    <row r="1025" ht="13.5" customHeight="1"/>
+    <row r="1026" ht="13.5" customHeight="1"/>
+    <row r="1027" ht="13.5" customHeight="1"/>
+    <row r="1028" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -8753,440 +9504,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="I3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="6" t="s">
-        <v>155</v>
+        <v>238</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="I5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="6" t="s">
-        <v>158</v>
+        <v>241</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="I9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="6" t="s">
-        <v>160</v>
+        <v>243</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="6"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="6"/>
+        <v>246</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="6"/>
+        <v>246</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="I16" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="6" t="s">
-        <v>164</v>
+        <v>247</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="I17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="6" t="s">
-        <v>166</v>
+        <v>249</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="6"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M19" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="I20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="6" t="s">
-        <v>170</v>
+        <v>252</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="6"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="6"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="I25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="6" t="s">
-        <v>172</v>
+        <v>254</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="6"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="6"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="6"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="6"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="6"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="I31" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="6" t="s">
-        <v>174</v>
+        <v>256</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="6"/>
+        <v>258</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="6" t="s">
-        <v>177</v>
+        <v>259</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="6" t="s">
-        <v>179</v>
+        <v>261</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="6" t="s">
-        <v>181</v>
+        <v>263</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="7" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="6"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="6"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="7"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="I39" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="6" t="s">
-        <v>183</v>
+        <v>265</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="6"/>
+        <v>258</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="6"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="7"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="I43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="6" t="s">
-        <v>185</v>
+        <v>267</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="I44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>187</v>
+        <v>269</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1"/>
     <row r="48" ht="13.5" customHeight="1"/>
     <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="I50" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>190</v>
+        <v>272</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1"/>
@@ -17781,19 +18532,19 @@
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>64</v>
@@ -17802,7 +18553,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1"/>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="6" ht="13.5" customHeight="1"/>
     <row r="7" ht="13.5" customHeight="1"/>
     <row r="8" ht="13.5" customHeight="1"/>

--- a/Assets/MyProject/Scenarios/MyProject.xlsx
+++ b/Assets/MyProject/Scenarios/MyProject.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="283">
   <si>
     <t>CharacterName</t>
   </si>
@@ -102,6 +102,15 @@
     <t>CgCategolly</t>
   </si>
   <si>
+    <t>背景その１</t>
+  </si>
+  <si>
+    <t>Bg</t>
+  </si>
+  <si>
+    <t>Researchers-Room1.jpg</t>
+  </si>
+  <si>
     <t>LayerName</t>
   </si>
   <si>
@@ -213,6 +222,24 @@
     <t>Volume</t>
   </si>
   <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>BGMその1</t>
+  </si>
+  <si>
+    <t>メインテーマ</t>
+  </si>
+  <si>
+    <t>Bgm</t>
+  </si>
+  <si>
+    <t>Ordinary_Days.mp3</t>
+  </si>
+  <si>
+    <t>Main theme</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
@@ -282,9 +309,6 @@
     <t>WindowType</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>目が覚めたか？</t>
   </si>
   <si>
@@ -622,6 +646,9 @@
   </si>
   <si>
     <t>まぁ、この開発が終わったらまとまった休みをもらうよ</t>
+  </si>
+  <si>
+    <t>BgOff</t>
   </si>
   <si>
     <t>If</t>
@@ -853,7 +880,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -864,6 +891,11 @@
       <color theme="1"/>
       <name val="MS PGothic"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;ＭＳ Ｐゴシック&quot;"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -890,14 +922,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;ＭＳ Ｐゴシック&quot;"/>
+      <sz val="12.0"/>
+      <color rgb="FF141413"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF141413"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -919,43 +951,52 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2353,7 +2394,7 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
@@ -3393,10 +3434,10 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -4428,7 +4469,7 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1"/>
@@ -5463,40 +5504,40 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1"/>
@@ -6531,2103 +6572,2153 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6"/>
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="7"/>
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="7"/>
+      <c r="A10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="7"/>
+      <c r="A11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="7"/>
+      <c r="A12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="7"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="B26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
+      <c r="B33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="B36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="10" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="B38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="10"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="9" t="s">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="13"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="10"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="10"/>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="10"/>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="10"/>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="10"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="10"/>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="10"/>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="10"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="10"/>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="9" t="s">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="13"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="10"/>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="10"/>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="M66" s="10"/>
+    </row>
+    <row r="67" ht="13.5" customHeight="1">
+      <c r="A67" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" ht="13.5" customHeight="1">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" ht="13.5" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" ht="13.5" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" ht="13.5" customHeight="1">
+      <c r="I71" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="I72" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M72" s="10"/>
+    </row>
+    <row r="73" ht="13.5" customHeight="1">
+      <c r="I73" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" ht="13.5" customHeight="1">
+      <c r="A74" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="7"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="7"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="7"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="7"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="7"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="7"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="7"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="B74" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="I74" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" ht="13.5" customHeight="1">
+      <c r="A75" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="11"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="7"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="7"/>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="7"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="7"/>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="7"/>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="7"/>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="7"/>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="7"/>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="7"/>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="7"/>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="7"/>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="7"/>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="7"/>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="7"/>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="7"/>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="9" t="s">
+      <c r="B75" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="I75" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" ht="13.5" customHeight="1">
+      <c r="A76" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" ht="13.5" customHeight="1">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="I77" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" ht="13.5" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" ht="13.5" customHeight="1">
+      <c r="A79" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" ht="13.5" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" ht="13.5" customHeight="1">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="I81" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" ht="13.5" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" ht="13.5" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" ht="13.5" customHeight="1">
+      <c r="I84" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" ht="13.5" customHeight="1">
+      <c r="I85" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" ht="13.5" customHeight="1">
+      <c r="I86" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" ht="13.5" customHeight="1">
+      <c r="I87" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" ht="13.5" customHeight="1">
+      <c r="I88" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" ht="13.5" customHeight="1">
+      <c r="I89" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" ht="13.5" customHeight="1">
+      <c r="I90" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" ht="13.5" customHeight="1">
+      <c r="I91" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" ht="13.5" customHeight="1">
+      <c r="I92" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" ht="13.5" customHeight="1">
+      <c r="A93" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="11"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="7"/>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="7"/>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="M64" s="7"/>
-    </row>
-    <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" ht="13.5" customHeight="1">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" ht="13.5" customHeight="1">
-      <c r="I69" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="I70" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M70" s="7"/>
-    </row>
-    <row r="71" ht="13.5" customHeight="1">
-      <c r="I71" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="I72" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="I73" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" ht="13.5" customHeight="1">
-      <c r="A74" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" ht="13.5" customHeight="1">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="I75" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" ht="13.5" customHeight="1">
-      <c r="A78" s="9" t="s">
+      <c r="B93" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" ht="13.5" customHeight="1">
+      <c r="A94" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" ht="13.5" customHeight="1">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="I79" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" ht="13.5" customHeight="1">
-      <c r="A80" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" ht="13.5" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" ht="13.5" customHeight="1">
-      <c r="I82" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" ht="13.5" customHeight="1">
-      <c r="I83" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" ht="13.5" customHeight="1">
-      <c r="I84" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" ht="13.5" customHeight="1">
-      <c r="I85" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" ht="13.5" customHeight="1">
-      <c r="I86" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" ht="13.5" customHeight="1">
-      <c r="I87" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" ht="13.5" customHeight="1">
-      <c r="I88" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="89" ht="13.5" customHeight="1">
-      <c r="I89" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="90" ht="13.5" customHeight="1">
-      <c r="I90" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" ht="13.5" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" ht="13.5" customHeight="1">
-      <c r="A92" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" ht="13.5" customHeight="1">
-      <c r="A93" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" s="5"/>
-    </row>
-    <row r="94" ht="13.5" customHeight="1">
-      <c r="A94" s="9" t="s">
+      <c r="B94" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" ht="13.5" customHeight="1">
+      <c r="A95" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" ht="13.5" customHeight="1">
+      <c r="A96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" ht="13.5" customHeight="1">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="I97" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" ht="13.5" customHeight="1">
+      <c r="A98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" ht="13.5" customHeight="1">
+      <c r="A99" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" ht="13.5" customHeight="1">
+      <c r="B100" s="8"/>
+      <c r="I100" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" ht="13.5" customHeight="1">
+      <c r="A101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" ht="13.5" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103" ht="13.5" customHeight="1">
+      <c r="I103" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" ht="13.5" customHeight="1">
+      <c r="I104" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" ht="13.5" customHeight="1">
+      <c r="A105" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" ht="13.5" customHeight="1">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="I95" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="96" ht="13.5" customHeight="1">
-      <c r="A96" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" ht="13.5" customHeight="1">
-      <c r="A97" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B97" s="5"/>
-    </row>
-    <row r="98" ht="13.5" customHeight="1">
-      <c r="B98" s="5"/>
-      <c r="I98" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" ht="13.5" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100" ht="13.5" customHeight="1">
-      <c r="A100" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B100" s="5"/>
-    </row>
-    <row r="101" ht="13.5" customHeight="1">
-      <c r="I101" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="102" ht="13.5" customHeight="1">
-      <c r="I102" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" ht="13.5" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="104" ht="13.5" customHeight="1">
-      <c r="A104" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="105" ht="13.5" customHeight="1">
-      <c r="A105" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B105" s="5"/>
+      <c r="B105" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="106" ht="13.5" customHeight="1">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="I106" s="2" t="s">
-        <v>174</v>
+      <c r="A106" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1">
-      <c r="A107" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>175</v>
-      </c>
+      <c r="A107" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="8"/>
     </row>
     <row r="108" ht="13.5" customHeight="1">
-      <c r="A108" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B108" s="5"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="I108" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="109" ht="13.5" customHeight="1">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" ht="13.5" customHeight="1">
+      <c r="A110" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" ht="13.5" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" ht="13.5" customHeight="1">
+      <c r="B112" s="8"/>
+      <c r="I112" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" ht="13.5" customHeight="1">
+      <c r="A113" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" ht="13.5" customHeight="1">
+      <c r="A114" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115" ht="13.5" customHeight="1">
+      <c r="I115" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" ht="13.5" customHeight="1">
+      <c r="I116" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" ht="13.5" customHeight="1">
+      <c r="I117" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" ht="13.5" customHeight="1">
+      <c r="I118" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" ht="13.5" customHeight="1">
+      <c r="I119" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" ht="13.5" customHeight="1">
+      <c r="I120" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="121" ht="13.5" customHeight="1">
+      <c r="I121" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" ht="13.5" customHeight="1">
+      <c r="A122" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" ht="13.5" customHeight="1">
-      <c r="B110" s="5"/>
-      <c r="I110" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="111" ht="13.5" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="112" ht="13.5" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B112" s="5"/>
-    </row>
-    <row r="113" ht="13.5" customHeight="1">
-      <c r="I113" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="114" ht="13.5" customHeight="1">
-      <c r="I114" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="115" ht="13.5" customHeight="1">
-      <c r="I115" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="116" ht="13.5" customHeight="1">
-      <c r="I116" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="117" ht="13.5" customHeight="1">
-      <c r="I117" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="118" ht="13.5" customHeight="1">
-      <c r="I118" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" ht="13.5" customHeight="1">
-      <c r="I119" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="120" ht="13.5" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="121" ht="13.5" customHeight="1">
-      <c r="A121" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="122" ht="13.5" customHeight="1">
-      <c r="A122" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B122" s="5"/>
+      <c r="B122" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="123" ht="13.5" customHeight="1">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I123" s="2"/>
+      <c r="B123" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="124" ht="13.5" customHeight="1">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="I124" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="A124" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" ht="13.5" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>189</v>
-      </c>
+      <c r="A125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I125" s="5"/>
     </row>
     <row r="126" ht="13.5" customHeight="1">
-      <c r="A126" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B126" s="5"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="I126" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="127" ht="13.5" customHeight="1">
-      <c r="B127" s="5"/>
-      <c r="I127" s="2" t="s">
-        <v>190</v>
+      <c r="A127" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>189</v>
-      </c>
+      <c r="A128" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" s="8"/>
     </row>
     <row r="129" ht="13.5" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B129" s="5"/>
+      <c r="B129" s="8"/>
+      <c r="I129" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="130" ht="13.5" customHeight="1">
-      <c r="I130" s="2" t="s">
-        <v>191</v>
+      <c r="A130" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="131" ht="13.5" customHeight="1">
-      <c r="I131" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="A131" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" ht="13.5" customHeight="1">
-      <c r="I132" s="2" t="s">
-        <v>193</v>
+      <c r="I132" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="133" ht="13.5" customHeight="1">
-      <c r="I133" s="2" t="s">
-        <v>194</v>
+      <c r="I133" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="134" ht="13.5" customHeight="1">
-      <c r="I134" s="2" t="s">
-        <v>195</v>
+      <c r="I134" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="135" ht="13.5" customHeight="1">
-      <c r="I135" s="2" t="s">
-        <v>196</v>
+      <c r="I135" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="136" ht="13.5" customHeight="1">
-      <c r="I136" s="2" t="s">
-        <v>197</v>
+      <c r="I136" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="137" ht="13.5" customHeight="1">
-      <c r="I137" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="138" ht="13.5" customHeight="1"/>
+      <c r="I137" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" ht="13.5" customHeight="1">
+      <c r="I138" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
     <row r="139" ht="13.5" customHeight="1">
-      <c r="A139" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>200</v>
+      <c r="I139" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="140" ht="13.5" customHeight="1">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5" t="s">
-        <v>201</v>
+      <c r="A140" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G140" s="15">
+        <v>0.5</v>
       </c>
     </row>
     <row r="141" ht="13.5" customHeight="1">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5" t="s">
-        <v>202</v>
+      <c r="A141" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5" t="s">
-        <v>203</v>
+      <c r="A142" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="143" ht="13.5" customHeight="1">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5" t="s">
-        <v>204</v>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="144" ht="13.5" customHeight="1">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5" t="s">
-        <v>205</v>
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="145" ht="13.5" customHeight="1">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="W145" s="5"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="146" ht="13.5" customHeight="1">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="V146" s="9"/>
-      <c r="W146" s="5"/>
-      <c r="X146" s="5"/>
-      <c r="Y146" s="5"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="147" ht="13.5" customHeight="1">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="W147" s="5"/>
-      <c r="X147" s="5"/>
-      <c r="Y147" s="5"/>
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="148" ht="13.5" customHeight="1">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="W148" s="5"/>
-      <c r="X148" s="5"/>
-      <c r="Y148" s="5"/>
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="W148" s="8"/>
+      <c r="X148" s="8"/>
+      <c r="Y148" s="8"/>
     </row>
     <row r="149" ht="13.5" customHeight="1">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="U149" s="5"/>
-      <c r="V149" s="5"/>
-      <c r="W149" s="5"/>
-      <c r="X149" s="5"/>
-      <c r="Y149" s="5"/>
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="V149" s="2"/>
+      <c r="W149" s="8"/>
+      <c r="X149" s="8"/>
+      <c r="Y149" s="8"/>
     </row>
     <row r="150" ht="13.5" customHeight="1">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5" t="s">
-        <v>211</v>
-      </c>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="W150" s="8"/>
+      <c r="X150" s="8"/>
+      <c r="Y150" s="8"/>
     </row>
     <row r="151" ht="13.5" customHeight="1">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5" t="s">
-        <v>212</v>
-      </c>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="W151" s="8"/>
+      <c r="X151" s="8"/>
+      <c r="Y151" s="8"/>
     </row>
     <row r="152" ht="13.5" customHeight="1">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="U152" s="8"/>
+      <c r="V152" s="8"/>
+      <c r="W152" s="8"/>
+      <c r="X152" s="8"/>
+      <c r="Y152" s="8"/>
     </row>
     <row r="153" ht="13.5" customHeight="1">
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5" t="s">
-        <v>214</v>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="154" ht="13.5" customHeight="1">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5" t="s">
-        <v>215</v>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="155" ht="13.5" customHeight="1">
-      <c r="A155" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-    </row>
-    <row r="156" ht="13.5" customHeight="1"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" ht="13.5" customHeight="1">
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
     <row r="157" ht="13.5" customHeight="1">
-      <c r="A157" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>218</v>
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="158" ht="13.5" customHeight="1">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="I158" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="159" ht="13.5" customHeight="1">
-      <c r="A159" s="13"/>
-      <c r="B159" s="9"/>
-      <c r="I159" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
+      <c r="A158" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+    </row>
+    <row r="159" ht="13.5" customHeight="1"/>
     <row r="160" ht="13.5" customHeight="1">
-      <c r="A160" s="13"/>
-      <c r="B160" s="9"/>
-      <c r="I160" s="5" t="s">
-        <v>221</v>
+      <c r="A160" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="161" ht="13.5" customHeight="1">
-      <c r="A161" s="13"/>
-      <c r="B161" s="9"/>
-      <c r="I161" s="5" t="s">
-        <v>222</v>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="I161" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="162" ht="13.5" customHeight="1">
-      <c r="I162" s="5" t="s">
-        <v>223</v>
+      <c r="A162" s="16"/>
+      <c r="B162" s="2"/>
+      <c r="I162" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="163" ht="13.5" customHeight="1">
-      <c r="I163" s="5" t="s">
-        <v>224</v>
+      <c r="A163" s="16"/>
+      <c r="B163" s="2"/>
+      <c r="I163" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="164" ht="13.5" customHeight="1">
-      <c r="A164" s="5" t="s">
-        <v>216</v>
+      <c r="A164" s="16"/>
+      <c r="B164" s="2"/>
+      <c r="I164" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="165" ht="13.5" customHeight="1">
-      <c r="A165" s="9" t="s">
+      <c r="I165" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="166" ht="13.5" customHeight="1">
+      <c r="I166" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="167" ht="13.5" customHeight="1">
+      <c r="A167" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="166" ht="13.5" customHeight="1">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="167" ht="13.5" customHeight="1">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
     <row r="168" ht="13.5" customHeight="1">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="11" t="s">
-        <v>228</v>
+      <c r="A168" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="169" ht="13.5" customHeight="1">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="11" t="s">
-        <v>229</v>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="13" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="170" ht="13.5" customHeight="1">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="11" t="s">
-        <v>230</v>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="171" ht="13.5" customHeight="1">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="11" t="s">
-        <v>231</v>
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="13" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="172" ht="13.5" customHeight="1">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="11" t="s">
-        <v>232</v>
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="13" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="173" ht="13.5" customHeight="1">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="11" t="s">
-        <v>233</v>
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="13" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="174" ht="13.5" customHeight="1">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="11" t="s">
-        <v>234</v>
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="13" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="175" ht="13.5" customHeight="1">
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="11" t="s">
-        <v>235</v>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="176" ht="13.5" customHeight="1">
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5" t="s">
-        <v>236</v>
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="177" ht="13.5" customHeight="1">
-      <c r="A177" s="5" t="s">
-        <v>216</v>
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="13" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="178" ht="13.5" customHeight="1">
-      <c r="A178" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="179" ht="13.5" customHeight="1"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="179" ht="13.5" customHeight="1">
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
     <row r="180" ht="13.5" customHeight="1">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
+      <c r="A180" s="8" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="181" ht="13.5" customHeight="1">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-    </row>
-    <row r="182" ht="13.5" customHeight="1">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-    </row>
+      <c r="A181" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" ht="13.5" customHeight="1"/>
     <row r="183" ht="13.5" customHeight="1">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-    </row>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+    </row>
+    <row r="184" ht="13.5" customHeight="1">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+    </row>
+    <row r="185" ht="13.5" customHeight="1">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+    </row>
+    <row r="186" ht="13.5" customHeight="1">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+    </row>
     <row r="187" ht="13.5" customHeight="1"/>
     <row r="188" ht="13.5" customHeight="1"/>
     <row r="189" ht="13.5" customHeight="1"/>
@@ -9470,10 +9561,13 @@
     <row r="1026" ht="13.5" customHeight="1"/>
     <row r="1027" ht="13.5" customHeight="1"/>
     <row r="1028" ht="13.5" customHeight="1"/>
+    <row r="1029" ht="13.5" customHeight="1"/>
+    <row r="1030" ht="13.5" customHeight="1"/>
+    <row r="1031" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -9504,440 +9598,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="I3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="10" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="I5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="I9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="10" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="I16" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="I17" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="10" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M19" s="7"/>
+        <v>260</v>
+      </c>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="I20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="I25" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="10"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="I31" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="7"/>
+        <v>267</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="10"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="10" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="10" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="10" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="10"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="10"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="I39" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="10" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="7"/>
+        <v>267</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="10"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="10"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="10"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="I43" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="10" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="I44" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1"/>
     <row r="48" ht="13.5" customHeight="1"/>
     <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="I50" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1"/>
@@ -10911,7 +11005,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.63"/>
+    <col customWidth="1" min="1" max="1" width="13.13"/>
     <col customWidth="1" min="2" max="2" width="5.38"/>
     <col customWidth="1" min="3" max="4" width="2.63"/>
     <col customWidth="1" min="5" max="5" width="2.5"/>
@@ -10979,11 +11073,52 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1"/>
-    <row r="3" ht="13.5" customHeight="1"/>
-    <row r="4" ht="13.5" customHeight="1"/>
-    <row r="5" ht="13.5" customHeight="1"/>
-    <row r="6" ht="13.5" customHeight="1"/>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+    </row>
     <row r="7" ht="13.5" customHeight="1"/>
     <row r="8" ht="13.5" customHeight="1"/>
     <row r="9" ht="13.5" customHeight="1"/>
@@ -11979,6 +12114,18 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
@@ -13053,7 +13200,7 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -13065,43 +13212,43 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1"/>
@@ -14146,46 +14293,46 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1"/>
@@ -15234,43 +15381,43 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1"/>
@@ -16297,12 +16444,12 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
@@ -16359,7 +16506,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>0.0</v>
@@ -16376,7 +16523,7 @@
     </row>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>0.2</v>
@@ -16396,7 +16543,7 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>0.2</v>
@@ -16416,7 +16563,7 @@
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1">
         <v>0.0</v>
@@ -17447,10 +17594,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.63"/>
-    <col customWidth="1" min="2" max="2" width="5.0"/>
+    <col customWidth="1" min="1" max="1" width="12.38"/>
+    <col customWidth="1" min="2" max="2" width="13.5"/>
     <col customWidth="1" min="3" max="3" width="5.38"/>
-    <col customWidth="1" min="4" max="4" width="8.75"/>
+    <col customWidth="1" min="4" max="4" width="21.75"/>
     <col customWidth="1" min="5" max="5" width="9.13"/>
     <col customWidth="1" min="6" max="6" width="7.38"/>
     <col customWidth="1" min="7" max="26" width="8.0"/>
@@ -17461,7 +17608,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -17470,13 +17617,36 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1"/>
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.976</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="3" ht="13.5" customHeight="1"/>
     <row r="4" ht="13.5" customHeight="1"/>
     <row r="5" ht="13.5" customHeight="1"/>
@@ -18511,7 +18681,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -18519,24 +18689,24 @@
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>66</v>
+      <c r="A3" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1">
         <v>0.0</v>
@@ -18544,10 +18714,10 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>0</v>
@@ -18555,10 +18725,10 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
